--- a/templates/Data2.xlsx
+++ b/templates/Data2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="200" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="3340" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="11" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,17 @@
     <sheet name="Chart1" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="9" r:id="rId9"/>
-    <sheet name="scala" sheetId="10" r:id="rId10"/>
-    <sheet name="Chart2" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet6" sheetId="11" r:id="rId12"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
+    <sheet name="Chart4" sheetId="18" r:id="rId10"/>
+    <sheet name="Chart5" sheetId="19" r:id="rId11"/>
+    <sheet name="Chart6" sheetId="20" r:id="rId12"/>
+    <sheet name="scala" sheetId="10" r:id="rId13"/>
+    <sheet name="Chart2" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId15"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId16"/>
+    <sheet name="Chart3" sheetId="16" r:id="rId17"/>
+    <sheet name="Sheet9" sheetId="15" r:id="rId18"/>
+    <sheet name="Sheet5" sheetId="17" r:id="rId19"/>
+    <sheet name="Sheet8" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="210">
   <si>
     <t>Clients</t>
   </si>
@@ -297,9 +304,6 @@
     <t>15 Clients</t>
   </si>
   <si>
-    <t>10 Client Handlers</t>
-  </si>
-  <si>
     <t>30 Clients</t>
   </si>
   <si>
@@ -307,15 +311,6 @@
   </si>
   <si>
     <t>60 Clients</t>
-  </si>
-  <si>
-    <t>1 Middleware</t>
-  </si>
-  <si>
-    <t>2 Middlewares</t>
-  </si>
-  <si>
-    <t>4 Middlewares</t>
   </si>
   <si>
     <t>Throuhput (Req/sec)</t>
@@ -328,6 +323,351 @@
   </si>
   <si>
     <t>Setting/</t>
+  </si>
+  <si>
+    <t>Standard Deviation total of waiting time for all clients</t>
+  </si>
+  <si>
+    <t>Standard Error total of waiting time for all clients</t>
+  </si>
+  <si>
+    <t>Average total of waiting time for all Client Hanlders</t>
+  </si>
+  <si>
+    <t>Standard Deviation total of waiting time for all Client Hanlders</t>
+  </si>
+  <si>
+    <t>Standard Error total of waiting time for all Client Hanlders</t>
+  </si>
+  <si>
+    <t>Standard Deviation of Throughput in the Middleware:</t>
+  </si>
+  <si>
+    <t>Standard Error of Throughput in the Middleware:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilization Law </t>
+  </si>
+  <si>
+    <t>X=194.08041958</t>
+  </si>
+  <si>
+    <t>S=0.00514444004749</t>
+  </si>
+  <si>
+    <t>U=0.998435082923</t>
+  </si>
+  <si>
+    <t>X=193.701754386</t>
+  </si>
+  <si>
+    <t>S=0.0051559447138</t>
+  </si>
+  <si>
+    <t>U=0.99871553658</t>
+  </si>
+  <si>
+    <t>X=191.258741259</t>
+  </si>
+  <si>
+    <t>S=0.0052193590773</t>
+  </si>
+  <si>
+    <t>U=0.998248047303</t>
+  </si>
+  <si>
+    <t>X=189.296167247</t>
+  </si>
+  <si>
+    <t>S=0.00527244001911</t>
+  </si>
+  <si>
+    <t>U=0.998052687658</t>
+  </si>
+  <si>
+    <t>X=193.856140351</t>
+  </si>
+  <si>
+    <t>S=0.00515258894996</t>
+  </si>
+  <si>
+    <t>U=0.998861006653</t>
+  </si>
+  <si>
+    <t>X=191.637630662</t>
+  </si>
+  <si>
+    <t>S=0.00521117042525</t>
+  </si>
+  <si>
+    <t>U=0.99865635327</t>
+  </si>
+  <si>
+    <t>X=479.197952218</t>
+  </si>
+  <si>
+    <t>S=0.00207620302856</t>
+  </si>
+  <si>
+    <t>U=0.994912239677</t>
+  </si>
+  <si>
+    <t>X=486.276450512</t>
+  </si>
+  <si>
+    <t>S=0.00204953867892</t>
+  </si>
+  <si>
+    <t>U=0.996642393973</t>
+  </si>
+  <si>
+    <t>X=458.467128028</t>
+  </si>
+  <si>
+    <t>S=0.00217394574915</t>
+  </si>
+  <si>
+    <t>U=0.996682664099</t>
+  </si>
+  <si>
+    <t>X=468.203448276</t>
+  </si>
+  <si>
+    <t>S=0.00212666099557</t>
+  </si>
+  <si>
+    <t>U=0.99571001144</t>
+  </si>
+  <si>
+    <t>X=452.965156794</t>
+  </si>
+  <si>
+    <t>S=0.00220004292767</t>
+  </si>
+  <si>
+    <t>U=0.996542789685</t>
+  </si>
+  <si>
+    <t>X=454.602787456</t>
+  </si>
+  <si>
+    <t>S=0.00218950259384</t>
+  </si>
+  <si>
+    <t>U=0.995353982301</t>
+  </si>
+  <si>
+    <t>X=440.496478873</t>
+  </si>
+  <si>
+    <t>S=0.00226107448807</t>
+  </si>
+  <si>
+    <t>U=0.995995350467</t>
+  </si>
+  <si>
+    <t>X=444.477192982</t>
+  </si>
+  <si>
+    <t>S=0.00224257589349</t>
+  </si>
+  <si>
+    <t>U=0.996773838188</t>
+  </si>
+  <si>
+    <t>X=438.634408602</t>
+  </si>
+  <si>
+    <t>S=0.00227176497411</t>
+  </si>
+  <si>
+    <t>U=0.9964742859</t>
+  </si>
+  <si>
+    <t>X=438.239285714</t>
+  </si>
+  <si>
+    <t>S=0.00227224773993</t>
+  </si>
+  <si>
+    <t>U=0.995788226511</t>
+  </si>
+  <si>
+    <t>Response Time per Request in Clients</t>
+  </si>
+  <si>
+    <t>Time in process a request in the middleware</t>
+  </si>
+  <si>
+    <t>Client_31</t>
+  </si>
+  <si>
+    <t>Client_32</t>
+  </si>
+  <si>
+    <t>Client_33</t>
+  </si>
+  <si>
+    <t>Client_34</t>
+  </si>
+  <si>
+    <t>Client_35</t>
+  </si>
+  <si>
+    <t>Client_36</t>
+  </si>
+  <si>
+    <t>Client_37</t>
+  </si>
+  <si>
+    <t>Client_38</t>
+  </si>
+  <si>
+    <t>Client_39</t>
+  </si>
+  <si>
+    <t>Client_40</t>
+  </si>
+  <si>
+    <t>Client_41</t>
+  </si>
+  <si>
+    <t>Client_42</t>
+  </si>
+  <si>
+    <t>Client_43</t>
+  </si>
+  <si>
+    <t>Client_44</t>
+  </si>
+  <si>
+    <t>Client_45</t>
+  </si>
+  <si>
+    <t>Client_46</t>
+  </si>
+  <si>
+    <t>Client_47</t>
+  </si>
+  <si>
+    <t>Client_48</t>
+  </si>
+  <si>
+    <t>Client_49</t>
+  </si>
+  <si>
+    <t>Client_50</t>
+  </si>
+  <si>
+    <t>Average total of waiting time for all Database</t>
+  </si>
+  <si>
+    <t>Standard Deviation total of waiting time for all Database</t>
+  </si>
+  <si>
+    <t>Standard Error total of waiting time for all Database</t>
+  </si>
+  <si>
+    <t>Time response from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Std. Dev.</t>
+  </si>
+  <si>
+    <t>10 Client Handlers 15 Clients</t>
+  </si>
+  <si>
+    <t>Scale Out</t>
+  </si>
+  <si>
+    <t>Scale Up</t>
+  </si>
+  <si>
+    <t>1 Middleware/1 Middleware</t>
+  </si>
+  <si>
+    <t>1 Middleware/2 Middlewares</t>
+  </si>
+  <si>
+    <t>1 Middleware/4 Middlewares</t>
+  </si>
+  <si>
+    <t>X=408.957798165</t>
+  </si>
+  <si>
+    <t>S=0.00244131876008</t>
+  </si>
+  <si>
+    <t>U=0.998396344741</t>
+  </si>
+  <si>
+    <t>X=405.648351648</t>
+  </si>
+  <si>
+    <t>S=0.00245965889126</t>
+  </si>
+  <si>
+    <t>U=0.997756574857</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid2_cl_10_con10_db5_msg7_op5_t10_2/</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid2_cl_10_con10_db5_msg7_op5_t10_1/</t>
+  </si>
+  <si>
+    <t>X=864.18707483</t>
+  </si>
+  <si>
+    <t>S=0.00115508374357</t>
+  </si>
+  <si>
+    <t>U=0.998208441541</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid2_cl_20_con10_db5_msg7_op5_t10_1/</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid2_cl_20_con10_db5_msg7_op5_t10_2/</t>
+  </si>
+  <si>
+    <t>X=871.812286689</t>
+  </si>
+  <si>
+    <t>S=0.0011437717141</t>
+  </si>
+  <si>
+    <t>U=0.997154233517</t>
+  </si>
+  <si>
+    <t>X=928.917857143</t>
+  </si>
+  <si>
+    <t>S=0.00107345499157</t>
+  </si>
+  <si>
+    <t>U=0.997151510505</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid1_2_cl_20_con10_db5_msg7_op5_t10_1/</t>
+  </si>
+  <si>
+    <t>X=455.1</t>
+  </si>
+  <si>
+    <t>S=0.00219369094484</t>
+  </si>
+  <si>
+    <t>U=0.998348748998</t>
+  </si>
+  <si>
+    <t>logs_exp_2k_mid1_2_cl_10_con10_db5_msg7_op5_t10_1/</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>clients</t>
   </si>
 </sst>
 </file>
@@ -386,8 +726,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,7 +957,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -547,6 +1007,66 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -596,6 +1116,66 @@
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,6 +1218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -933,11 +1514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092535528"/>
-        <c:axId val="-2092529800"/>
+        <c:axId val="-2144852888"/>
+        <c:axId val="-2144845752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092535528"/>
+        <c:axId val="-2144852888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,13 +1545,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092529800"/>
+        <c:crossAx val="-2144845752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -978,7 +1560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092529800"/>
+        <c:axId val="-2144845752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,13 +1571,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092535528"/>
+        <c:crossAx val="-2144852888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1037,11 +1620,12 @@
               <a:rPr lang="en-US" sz="1800">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Average Response Time per Client in Long Trace</a:t>
+              <a:t>Average Response Time per Client in Long Trace with Std. Dev.</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1074,6 +1658,139 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>stability!$G$3:$G$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>17.135134537</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.750019531</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.8962589724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.4485073148</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16.5863601729</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15.4813982145</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16.8772939128</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16.8176357664</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18.1794089869</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.0590699682</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17.1750760143</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>17.6299998742</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>17.1013056374</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17.4663047755</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>16.566965377</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>stability!$G$3:$G$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>17.135134537</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16.750019531</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>16.8962589724</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.4485073148</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16.5863601729</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>15.4813982145</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>16.8772939128</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>16.8176357664</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>18.1794089869</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>17.0590699682</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>17.1750760143</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>17.6299998742</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>17.1013056374</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>17.4663047755</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>16.566965377</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="123825" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent1"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>stability!$E$3:$E$17</c:f>
@@ -1135,7 +1852,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>stability!$K$1</c:f>
+              <c:f>stability!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1144,9 +1861,144 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>stability!$N$4:$N$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>6.17980444194</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.91733063166</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.92562335858</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.65926088572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.49921540339</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.67783674406</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.05555891816</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.76700620041</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.59845740878</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.24549785556</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.85405184865</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5.64191826955</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.93150080652</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5.83611666354</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.90161473645</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>stability!$N$4:$N$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>6.17980444194</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.91733063166</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.92562335858</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.65926088572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.49921540339</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.67783674406</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.05555891816</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>6.76700620041</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.59845740878</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.24549785556</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.85405184865</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5.64191826955</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>5.93150080652</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>5.83611666354</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>5.90161473645</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="101600">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                    <a:alpha val="75000"/>
+                  </a:schemeClr>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="75000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>stability!$K$4:$K$18</c:f>
+              <c:f>stability!$L$4:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1210,11 +2062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2094647208"/>
-        <c:axId val="-2094139400"/>
+        <c:axId val="-2145843848"/>
+        <c:axId val="-2145838424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2094647208"/>
+        <c:axId val="-2145843848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,12 +2088,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094139400"/>
+        <c:crossAx val="-2145838424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,9 +2102,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2094139400"/>
+        <c:axId val="-2145838424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="110.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1272,19 +2127,22 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2094647208"/>
+        <c:crossAx val="-2145843848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1518,8 +2376,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131043368"/>
-        <c:axId val="-2131351832"/>
+        <c:axId val="-2145800232"/>
+        <c:axId val="-2142877592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1604,11 +2462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131467080"/>
-        <c:axId val="-2131126456"/>
+        <c:axId val="-2142866200"/>
+        <c:axId val="-2142881448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131043368"/>
+        <c:axId val="-2145800232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +2495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131351832"/>
+        <c:crossAx val="-2142877592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1645,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131351832"/>
+        <c:axId val="-2142877592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,12 +2533,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131043368"/>
+        <c:crossAx val="-2145800232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131126456"/>
+        <c:axId val="-2142881448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,12 +2567,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131467080"/>
+        <c:crossAx val="-2142866200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2131467080"/>
+        <c:axId val="-2142866200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +2581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131126456"/>
+        <c:crossAx val="-2142881448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1747,6 +2605,619 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throuhput (Req/sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>194.453488372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.494186047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>766.614035088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Latency (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.2265471421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.25648836009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.4805618888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111261032"/>
+        <c:axId val="-2111258056"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="-2111261032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111258056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2111258056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111261032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency Difference in Scalability Experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scala!$L$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15 Clients</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.2265471421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.25648836009999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.4805618888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scala!$L$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15 Clients</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30 Clients</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60 Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80.2265471421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.3379663414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.4863283503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2108332552"/>
+        <c:axId val="-2080646616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2108332552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2080646616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2080646616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108332552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Throughput Difference in Scalability Experiment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale Up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scala!$L$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Middleware/1 Middleware</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Middleware/2 Middlewares</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Middleware/4 Middlewares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>194.453488372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.494186047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>766.614035088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scala!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scale Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scala!$L$8:$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 Middleware/1 Middleware</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 Middleware/2 Middlewares</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 Middleware/4 Middlewares</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scala!$L$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>194.453488372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388.313953489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>755.454363638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2080602584"/>
+        <c:axId val="-2080583000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2080602584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2080583000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2080583000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Throughput</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Req/sec</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2080602584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6998,11 +8469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137821400"/>
-        <c:axId val="-2132028040"/>
+        <c:axId val="-2145900728"/>
+        <c:axId val="-2145895272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137821400"/>
+        <c:axId val="-2145900728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7037,7 +8508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132028040"/>
+        <c:crossAx val="-2145895272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7045,7 +8516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132028040"/>
+        <c:axId val="-2145895272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,11 +8546,389 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137821400"/>
+        <c:crossAx val="-2145900728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect in Messages of Different Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Response Time per Request in Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Sheet9!$B$6,Sheet9!$G$6,Sheet9!$L$6,Sheet9!$Q$6,Sheet9!$V$6,Sheet9!$AA$6,Sheet9!$AF$6,Sheet9!$AK$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.020989600076781</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0375458763546792</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0357138275367731</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.272743355842077</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.282612471725822</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.278571710598158</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.339416505595918</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.346921611584548</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Sheet9!$B$6,Sheet9!$G$6,Sheet9!$L$6,Sheet9!$Q$6,Sheet9!$V$6,Sheet9!$AA$6,Sheet9!$AF$6,Sheet9!$AK$6)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.020989600076781</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0375458763546792</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0357138275367731</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.272743355842077</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.282612471725822</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.278571710598158</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.339416505595918</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.346921611584548</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet9!$B$3,Sheet9!$G$3,Sheet9!$L$3,Sheet9!$Q$3,Sheet9!$V$3,Sheet9!$AA$3,Sheet9!$AF$3,Sheet9!$AK$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>80.8329226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.04896013680001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.2437886938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6279308238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.6093964016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.2362881037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.5515537787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.3973168713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$AO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time in process a request in the middleware</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet9!$B$7,Sheet9!$G$7,Sheet9!$L$7,Sheet9!$Q$7,Sheet9!$V$7,Sheet9!$AA$7,Sheet9!$AF$7,Sheet9!$AK$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.05719559199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.83258263843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.09857703586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0163208984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.8593641821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.4131671117</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.67521143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.5336379681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$AO$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time response from the database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet9!$B$12,Sheet9!$G$12,Sheet9!$L$12,Sheet9!$Q$12,Sheet9!$V$12,Sheet9!$AA$12,Sheet9!$AF$12,Sheet9!$AK$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.99056904132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.06312219141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.04128110758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.9176754845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.7550993677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.311829904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.5721802591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.4303192484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2144723784"/>
+        <c:axId val="-2144718024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2144723784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Scaling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Factor in Message Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144718024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2144718024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Response Time in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144723784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7111,6 +8960,50 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -7211,6 +9104,114 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -7907,12 +9908,3424 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1446402870598</v>
+      </c>
+      <c r="B1">
+        <v>1446402870642</v>
+      </c>
+      <c r="C1">
+        <f>B1-A1</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO39"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1">
+        <v>15</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK1">
+        <v>15</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="AO2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>80.832922600000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <v>82.048960136800005</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3">
+        <v>81.243788693799999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3">
+        <v>31.6279308238</v>
+      </c>
+      <c r="U3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3">
+        <v>33.609396401600002</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3">
+        <v>34.236288103699998</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF3">
+        <v>35.551553778699997</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK3">
+        <v>36.397316871299999</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>3.7902310751399999E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4">
+        <v>6.7799075152600002E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <v>6.4490823287200003E-2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q4">
+        <v>0.49251073820800001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>95</v>
+      </c>
+      <c r="V4">
+        <v>0.51033205427399997</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA4">
+        <v>0.50303538433399997</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF4">
+        <v>0.61290685969199998</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK4">
+        <v>0.62645932655000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>1.0129818642799999E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5">
+        <v>1.8120065025799999E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5">
+        <v>1.72358975237E-2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5">
+        <v>0.13162903154899999</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5">
+        <v>0.13639197861300001</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5">
+        <v>0.134441861543</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF5">
+        <v>0.16380624849799999</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5">
+        <v>0.16742829762100001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="B6">
+        <f>_xlfn.CONFIDENCE.T(0.05,B4,B1)</f>
+        <v>2.0989600076780964E-2</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.CONFIDENCE.T(0.05,G4,G1)</f>
+        <v>3.7545876354679167E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.CONFIDENCE.T(0.05,L4,L1)</f>
+        <v>3.5713827536773109E-2</v>
+      </c>
+      <c r="Q6">
+        <f>_xlfn.CONFIDENCE.T(0.05,Q4,Q1)</f>
+        <v>0.27274335584207737</v>
+      </c>
+      <c r="V6">
+        <f>_xlfn.CONFIDENCE.T(0.05,V4,V1)</f>
+        <v>0.2826124717258216</v>
+      </c>
+      <c r="AA6">
+        <f>_xlfn.CONFIDENCE.T(0.05,AA4,AA1)</f>
+        <v>0.27857171059815838</v>
+      </c>
+      <c r="AF6">
+        <f>_xlfn.CONFIDENCE.T(0.05,AF4,AF1)</f>
+        <v>0.33941650559591802</v>
+      </c>
+      <c r="AK6">
+        <f>_xlfn.CONFIDENCE.T(0.05,AK4,AK1)</f>
+        <v>0.3469216115845481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>3.0571955919899998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>3.8325826384299999</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7">
+        <v>3.09857703586</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7">
+        <v>30.0163208984</v>
+      </c>
+      <c r="U7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7">
+        <v>31.859364182099998</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7">
+        <v>32.413167111699998</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF7">
+        <v>33.675211429999997</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK7">
+        <v>34.533637968100003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <v>3.8948328559600003E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8">
+        <v>5.3838977991900003E-2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8">
+        <v>3.8201272589099999E-2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8">
+        <v>0.531364124647</v>
+      </c>
+      <c r="U8" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8">
+        <v>0.52819771110799996</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA8">
+        <v>0.50097152989899996</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF8">
+        <v>0.62946275502799998</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK8">
+        <v>0.69330983991200001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9">
+        <v>1.04093786612E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9">
+        <v>1.43890721214E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <v>1.02097195548E-2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>0.142013035861</v>
+      </c>
+      <c r="U9" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9">
+        <v>0.14116677624599999</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9">
+        <v>0.13389027324399999</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF9">
+        <v>0.168230997646</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK9">
+        <v>0.185294848845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="B10">
+        <f>_xlfn.CONFIDENCE.T(0.05,B8,B1)</f>
+        <v>2.1568865431110265E-2</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.CONFIDENCE.T(0.05,G8,G1)</f>
+        <v>2.9815032228631386E-2</v>
+      </c>
+      <c r="L10">
+        <f>_xlfn.CONFIDENCE.T(0.05,L8,L1)</f>
+        <v>2.1155159624131534E-2</v>
+      </c>
+      <c r="Q10">
+        <f>_xlfn.CONFIDENCE.T(0.05,Q8,Q1)</f>
+        <v>0.29425964407928235</v>
+      </c>
+      <c r="V10">
+        <f>_xlfn.CONFIDENCE.T(0.05,V8,V1)</f>
+        <v>0.29250614270842307</v>
+      </c>
+      <c r="AA10">
+        <f>_xlfn.CONFIDENCE.T(0.05,AA8,AA1)</f>
+        <v>0.2774287861075786</v>
+      </c>
+      <c r="AF10">
+        <f>_xlfn.CONFIDENCE.T(0.05,AF8,AF1)</f>
+        <v>0.34858485483707469</v>
+      </c>
+      <c r="AK10">
+        <f>_xlfn.CONFIDENCE.T(0.05,AK8,AK1)</f>
+        <v>0.38394219192855922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12">
+        <v>2.9905690413200001</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12">
+        <v>4.0631221914099998</v>
+      </c>
+      <c r="K12" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12">
+        <v>3.0412811075800001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12">
+        <v>29.917675484499998</v>
+      </c>
+      <c r="U12" t="s">
+        <v>173</v>
+      </c>
+      <c r="V12">
+        <v>31.755099367700002</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12">
+        <v>32.311829904</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF12">
+        <v>33.572180259100001</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK12">
+        <v>34.430319248399996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13">
+        <v>3.8936279774599999E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13">
+        <v>4.4575838674099998E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13">
+        <v>3.5172668635000001E-2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13">
+        <v>0.53447865262299998</v>
+      </c>
+      <c r="U13" t="s">
+        <v>174</v>
+      </c>
+      <c r="V13">
+        <v>0.53175244735500005</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA13">
+        <v>0.50267564241100005</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF13">
+        <v>0.63036370904799999</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK13">
+        <v>0.698442007654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>1.0406158488E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14">
+        <v>1.19133940033E-2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14">
+        <v>9.4002911007699998E-3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q14">
+        <v>0.14284542847600001</v>
+      </c>
+      <c r="U14" t="s">
+        <v>175</v>
+      </c>
+      <c r="V14">
+        <v>0.14211681946999999</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA14">
+        <v>0.13434571646999999</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF14">
+        <v>0.168471787737</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK14">
+        <v>0.18666647837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>194.08041958000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>191.258741259</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>193.85614035099999</v>
+      </c>
+      <c r="P16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>479.19795221800001</v>
+      </c>
+      <c r="U16" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>458.46712802799999</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16">
+        <v>452.96515679399999</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16">
+        <v>440.496478873</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16">
+        <v>438.63440860200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>2.6871556371700001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>11.374866962500001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>3.2805122377</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>44.741979995999998</v>
+      </c>
+      <c r="U17" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17">
+        <v>50.722801111999999</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17">
+        <v>50.444769244600003</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF17">
+        <v>53.1248528243</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK17">
+        <v>46.757619112599997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>0.159173362604</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18">
+        <v>0.67378896799200005</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18">
+        <v>0.19466258765899999</v>
+      </c>
+      <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18">
+        <v>2.6183263332800002</v>
+      </c>
+      <c r="U18" t="s">
+        <v>101</v>
+      </c>
+      <c r="V18">
+        <v>2.9888697189200002</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA18">
+        <v>2.9828617367099999</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF18">
+        <v>3.1579447109099998</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK18">
+        <v>2.8043356367599999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>55594</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>54796</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>55312</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>141123</v>
+      </c>
+      <c r="U19" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>132938</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>130452</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF19">
+        <v>125604</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK19">
+        <v>122812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="B20">
+        <f>_xlfn.CONFIDENCE.T(0.05,B17,B1)</f>
+        <v>1.4880971911767278</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.CONFIDENCE.T(0.05,G17,G1)</f>
+        <v>6.2991913615885382</v>
+      </c>
+      <c r="L20">
+        <f>_xlfn.CONFIDENCE.T(0.05,L17,L1)</f>
+        <v>1.8166871241159208</v>
+      </c>
+      <c r="Q20">
+        <f>_xlfn.CONFIDENCE.T(0.05,Q17,Q1)</f>
+        <v>24.777282654849365</v>
+      </c>
+      <c r="V20">
+        <f>_xlfn.CONFIDENCE.T(0.05,V17,V1)</f>
+        <v>28.089350992291564</v>
+      </c>
+      <c r="AA20">
+        <f>_xlfn.CONFIDENCE.T(0.05,AA17,AA1)</f>
+        <v>27.935382076158632</v>
+      </c>
+      <c r="AF20">
+        <f>_xlfn.CONFIDENCE.T(0.05,AF17,AF1)</f>
+        <v>29.419562892447587</v>
+      </c>
+      <c r="AK20">
+        <f>_xlfn.CONFIDENCE.T(0.05,AK17,AK1)</f>
+        <v>25.893506392078564</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" t="s">
+        <v>117</v>
+      </c>
+      <c r="P21" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>121</v>
+      </c>
+      <c r="R21" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" t="s">
+        <v>123</v>
+      </c>
+      <c r="U21" t="s">
+        <v>102</v>
+      </c>
+      <c r="V21" t="s">
+        <v>127</v>
+      </c>
+      <c r="W21" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>15</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23">
+        <v>15</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>81.347482069199998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>82.539683584000002</v>
+      </c>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25">
+        <v>81.633512496400002</v>
+      </c>
+      <c r="P25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25">
+        <v>31.249753083400002</v>
+      </c>
+      <c r="U25" t="s">
+        <v>84</v>
+      </c>
+      <c r="V25">
+        <v>32.813852456399999</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA25">
+        <v>34.1225759676</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF25">
+        <v>35.197306042100003</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK25">
+        <v>36.292632482899997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>8.7254950697600003E-2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26">
+        <v>6.6819367672599994E-2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26">
+        <v>5.8726565475799998E-2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26">
+        <v>0.226987335629</v>
+      </c>
+      <c r="U26" t="s">
+        <v>95</v>
+      </c>
+      <c r="V26">
+        <v>0.34379131624600001</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA26">
+        <v>0.58677315789700002</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF26">
+        <v>0.60264181880500001</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK26">
+        <v>0.44978481200999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>2.3319866486400002E-2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27">
+        <v>1.7858227187999998E-2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27">
+        <v>1.5695334822300001E-2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27">
+        <v>6.0664917218700001E-2</v>
+      </c>
+      <c r="U27" t="s">
+        <v>96</v>
+      </c>
+      <c r="V27">
+        <v>9.1882094138500001E-2</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27">
+        <v>0.15682172289999999</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF27">
+        <v>0.16106280092200001</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK27">
+        <v>0.120210047451</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29">
+        <v>3.1028359943999999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29">
+        <v>4.1386847973399998</v>
+      </c>
+      <c r="K29" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29">
+        <v>3.3155336869199998</v>
+      </c>
+      <c r="P29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q29">
+        <v>29.696655287799999</v>
+      </c>
+      <c r="U29" t="s">
+        <v>97</v>
+      </c>
+      <c r="V29">
+        <v>31.158148677100002</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA29">
+        <v>32.372462354699998</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF29">
+        <v>33.461061177099999</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK29">
+        <v>34.522072363500001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30">
+        <v>5.9492641204600002E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>4.6219035571600002E-2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30">
+        <v>4.9170289235100001E-2</v>
+      </c>
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30">
+        <v>0.22686653926899999</v>
+      </c>
+      <c r="U30" t="s">
+        <v>98</v>
+      </c>
+      <c r="V30">
+        <v>0.39434698414300001</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA30">
+        <v>0.58073113331699999</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF30">
+        <v>0.62414231021800004</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK30">
+        <v>0.48504220643000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>1.5900077172999998E-2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>1.23525568469E-2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31">
+        <v>1.3141312566200001E-2</v>
+      </c>
+      <c r="P31" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31">
+        <v>6.06326330335E-2</v>
+      </c>
+      <c r="U31" t="s">
+        <v>99</v>
+      </c>
+      <c r="V31">
+        <v>0.105393664727</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA31">
+        <v>0.155206923907</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF31">
+        <v>0.16680904895900001</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK31">
+        <v>0.129632982471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>193.701754386</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>189.296167247</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>191.63763066199999</v>
+      </c>
+      <c r="P34" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34">
+        <v>486.276450512</v>
+      </c>
+      <c r="U34" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34">
+        <v>468.20344827600002</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA34">
+        <v>454.60278745599999</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF34">
+        <v>444.47719298200002</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK34">
+        <v>438.239285714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>3.3922766369800001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>13.329622480899999</v>
+      </c>
+      <c r="K35" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35">
+        <v>6.4937154257699996</v>
+      </c>
+      <c r="P35" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q35">
+        <v>43.297155930099997</v>
+      </c>
+      <c r="U35" t="s">
+        <v>100</v>
+      </c>
+      <c r="V35">
+        <v>61.688734693699999</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA35">
+        <v>47.584098219700003</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF35">
+        <v>52.5834708788</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK35">
+        <v>44.626584319899997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>0.20129458461399999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36">
+        <v>0.78819710068299997</v>
+      </c>
+      <c r="K36" t="s">
+        <v>101</v>
+      </c>
+      <c r="L36">
+        <v>0.383981442728</v>
+      </c>
+      <c r="P36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q36">
+        <v>2.53377440019</v>
+      </c>
+      <c r="U36" t="s">
+        <v>101</v>
+      </c>
+      <c r="V36">
+        <v>3.6287490996299998</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA36">
+        <v>2.8137067129300002</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF36">
+        <v>3.12025493816</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK36">
+        <v>2.6717237184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>55276</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>54434</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>55074</v>
+      </c>
+      <c r="P37" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37">
+        <v>142959</v>
+      </c>
+      <c r="U37" t="s">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>136364</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37">
+        <v>131080</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <v>127086</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK37">
+        <v>123226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" t="s">
+        <v>120</v>
+      </c>
+      <c r="P39" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>124</v>
+      </c>
+      <c r="R39" t="s">
+        <v>125</v>
+      </c>
+      <c r="S39" t="s">
+        <v>126</v>
+      </c>
+      <c r="U39" t="s">
+        <v>102</v>
+      </c>
+      <c r="V39" t="s">
+        <v>130</v>
+      </c>
+      <c r="W39" t="s">
+        <v>131</v>
+      </c>
+      <c r="X39" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>0.30065019505899998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>0.41059720007099998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0.71553930530200005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0.86324216144099997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0.80130615476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.93054701905299997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1.04389173372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1.0980248719800001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0.81551976573899998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0.93448023426100002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.536141149687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>0.85128596893300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0.39382061332700002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0.87257414866299998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1.0897107286700001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>0.50685907714199996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>0.522636725824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0.71037567084099995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1.2553113553099999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0.52323064113200002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>0.82167704137700004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0.90751658069300001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>0.50235097830999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>0.47846770155200002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>0.51448312516600003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0.38360336216300001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.361157430113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.386944980695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>167</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>0.367092396727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>0.405990936222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>174</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0.31775255175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>151</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>0.42079859587500001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0.52970868185800002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>250</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>0.235474413646</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0.68013270882099996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>0.3992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0.31709190203900001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>0.98231009365199995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>0.38139741878099997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>297</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>0.22639292906700001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>346</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>0.160864750349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0.198231862924</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>419</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>0.16454791037700001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>465</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>0.123416135729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1.23815704088</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0.68071485729500003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0.55607720396500004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0.434142114385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>0.82432432432400005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>1.19546949214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53">
+        <f>AVERAGE(C1:C50)</f>
+        <v>121.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>26.753682498700002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>23.406986545999999</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2">
+        <v>45.580578791199997</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2">
+        <v>47.648163594700002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>0.111038488396</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>1.0441270733400001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3">
+        <v>1.17985252668</v>
+      </c>
+      <c r="P3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3">
+        <v>0.70804680742699999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4">
+        <v>3.70128294654E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4">
+        <v>0.239539178784</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4">
+        <v>0.27067673326699998</v>
+      </c>
+      <c r="P4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4">
+        <v>0.23601560247600001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>25.071326624200001</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6">
+        <v>21.616178942299999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6">
+        <v>44.058482083999998</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6">
+        <v>46.0570391575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>0.116652947264</v>
+      </c>
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7">
+        <v>1.1407197490000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7">
+        <v>1.2630160098700001</v>
+      </c>
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7">
+        <v>0.653655549452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>3.8884315754600003E-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>0.261699058358</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8">
+        <v>0.20224442188700001</v>
+      </c>
+      <c r="P8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q8">
+        <v>0.14995886757599999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11">
+        <v>24.9721050048</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11">
+        <v>21.516543231299998</v>
+      </c>
+      <c r="K11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>43.956613310599998</v>
+      </c>
+      <c r="P11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11">
+        <v>45.956491219699998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12">
+        <v>0.117999340817</v>
+      </c>
+      <c r="F12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12">
+        <v>1.1446438020900001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12">
+        <v>1.2664855853500001</v>
+      </c>
+      <c r="P12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q12">
+        <v>0.65783899547500002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>3.9333113605599997E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13">
+        <v>0.262599297876</v>
+      </c>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13">
+        <v>0.20279999860299999</v>
+      </c>
+      <c r="P13" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13">
+        <v>0.150918615915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>408.95779816499999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>864.18707483000003</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>928.91785714299999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>455.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>47.5772289485</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>110.33906788199999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>111.853652963</v>
+      </c>
+      <c r="P16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>49.7556483774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>2.0398568624200002</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>6.44607717335</v>
+      </c>
+      <c r="K17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17">
+        <v>6.6965030410599997</v>
+      </c>
+      <c r="P17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17">
+        <v>2.1235193257599998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>223240</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>254527</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>260840</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>250719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="P20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>204</v>
+      </c>
+      <c r="R20" t="s">
+        <v>205</v>
+      </c>
+      <c r="S20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>26.914584402500001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23">
+        <v>23.271993136399999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <v>0.195996143609</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24">
+        <v>1.0721217672400001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <v>6.5332047869599993E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>0.24596160203100001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>25.263810475700001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>21.541776994900001</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28">
+        <v>0.19007232442399999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28">
+        <v>1.1459809241100001</v>
+      </c>
+      <c r="O28" t="s">
+        <v>209</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>6.3357441474800005E-2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>0.26290605470599998</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
+      </c>
+      <c r="P29">
+        <v>455.1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>814.606149813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="O30">
+        <v>40</v>
+      </c>
+      <c r="P30">
+        <v>928.91785714299999</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1735.9993615190001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32">
+        <v>25.161993601300001</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32">
+        <v>21.448534505600001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33">
+        <v>0.18848890405300001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33">
+        <v>1.14990528541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>6.2829634684300001E-2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34">
+        <v>0.26380636493300003</v>
+      </c>
+      <c r="L34" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N34" t="s">
+        <v>79</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>455.1</v>
+      </c>
+      <c r="Q35">
+        <f>$P35*L35</f>
+        <v>455.1</v>
+      </c>
+      <c r="R35">
+        <f>$P35*M35</f>
+        <v>-455.1</v>
+      </c>
+      <c r="S35">
+        <f>$P35*N35</f>
+        <v>-455.1</v>
+      </c>
+      <c r="T35">
+        <f>$P35*O35</f>
+        <v>455.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>405.64835164800002</v>
+      </c>
+      <c r="C36">
+        <f>B36+B15</f>
+        <v>814.606149813</v>
+      </c>
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>871.81228668899996</v>
+      </c>
+      <c r="I36">
+        <f>G36+G15</f>
+        <v>1735.9993615190001</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>814.606149813</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" ref="Q36:Q38" si="0">$P36*L36</f>
+        <v>814.606149813</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:R38" si="1">$P36*M36</f>
+        <v>814.606149813</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S38" si="2">$P36*N36</f>
+        <v>-814.606149813</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ref="T36:T38" si="3">$P36*O36</f>
+        <v>-814.606149813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>51.684420029999998</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>91.240795987599995</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+      <c r="P37">
+        <v>928.91785714299999</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>928.91785714299999</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="1"/>
+        <v>-928.91785714299999</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>928.91785714299999</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>-928.91785714299999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>2.2139173110699999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38">
+        <v>5.3394637167400001</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1735.9993615190001</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="0"/>
+        <v>1735.9993615190001</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>1735.9993615190001</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>1735.9993615190001</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="3"/>
+        <v>1735.9993615190001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>221982</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>256170</v>
+      </c>
+      <c r="L39">
+        <v>3934.623368475</v>
+      </c>
+      <c r="M39">
+        <v>1166.5876541890002</v>
+      </c>
+      <c r="N39">
+        <v>1395.211068849</v>
+      </c>
+      <c r="O39">
+        <v>447.57535456300002</v>
+      </c>
+      <c r="P39" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:T39" si="4">SUM(Q35:Q38)</f>
+        <v>3934.623368475</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="4"/>
+        <v>1166.5876541890002</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>1395.211068849</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="4"/>
+        <v>447.57535456300002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="L40">
+        <f>L39/4</f>
+        <v>983.65584211875</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40:O40" si="5">M39/4</f>
+        <v>291.64691354725005</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>348.80276721224999</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>111.89383864075</v>
+      </c>
+      <c r="P40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" t="s">
+        <v>199</v>
+      </c>
+      <c r="M41">
+        <f>M40^2</f>
+        <v>85057.922181637143</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:O41" si="6">N40^2</f>
+        <v>121663.37041492306</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>12520.231125762199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="L42">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <f>M41*L42</f>
+        <v>340231.68872654857</v>
+      </c>
+      <c r="N42">
+        <f>N41*L42</f>
+        <v>486653.48165969225</v>
+      </c>
+      <c r="O42">
+        <f>O41*L42</f>
+        <v>50080.924503048795</v>
+      </c>
+      <c r="P42">
+        <f>SUM(M42:O42)</f>
+        <v>876966.09488928958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="M44">
+        <f>M42/P42</f>
+        <v>0.38796447286767716</v>
+      </c>
+      <c r="N44">
+        <f>N42/P42</f>
+        <v>0.55492850236260116</v>
+      </c>
+      <c r="O44">
+        <f>O42/P42</f>
+        <v>5.710702476972173E-2</v>
+      </c>
+      <c r="P44">
+        <f>SUM(M44:O44)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="M46">
+        <f>M44*100</f>
+        <v>38.796447286767716</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46:O46" si="7">N44*100</f>
+        <v>55.492850236260118</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>5.7107024769721733</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P27:Q27"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -7924,10 +13337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7935,29 +13348,29 @@
     <col min="1" max="1" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7973,20 +13386,26 @@
       <c r="E3">
         <v>81.664863144500004</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3">
+        <v>17.135134536999999</v>
+      </c>
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8002,38 +13421,50 @@
       <c r="E4">
         <v>81.624306881199999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4">
+        <v>16.750019531</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
         <v>22491</v>
       </c>
-      <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4">
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4">
         <v>80.009648303800006</v>
       </c>
       <c r="M4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4">
+        <v>6.17980444194</v>
+      </c>
+      <c r="O4" t="s">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4">
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4">
         <v>21994</v>
       </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4">
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4">
         <v>81.664863144500004</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8049,38 +13480,50 @@
       <c r="E5">
         <v>81.643061678999999</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5">
+        <v>16.896258972399998</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>22513</v>
       </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5">
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>79.930173677400006</v>
       </c>
       <c r="M5" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5">
+        <v>5.9173306316599996</v>
+      </c>
+      <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5">
+      <c r="P5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5">
         <v>22002</v>
       </c>
-      <c r="P5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5">
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5">
         <v>81.624306881199999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8096,38 +13539,50 @@
       <c r="E6">
         <v>81.603180372599994</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6">
+        <v>16.448507314800001</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
         <v>22517</v>
       </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>79.916152240499997</v>
       </c>
       <c r="M6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6">
+        <v>5.9256233585800002</v>
+      </c>
+      <c r="O6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6">
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <v>22001</v>
       </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6">
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>81.643061678999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8143,38 +13598,50 @@
       <c r="E7">
         <v>81.586653341200005</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7">
+        <v>16.586360172900001</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7">
         <v>22514</v>
       </c>
-      <c r="J7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7">
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7">
         <v>79.924935595600004</v>
       </c>
       <c r="M7" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7">
+        <v>5.6592608857200002</v>
+      </c>
+      <c r="O7" t="s">
         <v>10</v>
       </c>
-      <c r="N7" t="s">
-        <v>4</v>
-      </c>
-      <c r="O7">
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7">
         <v>22010</v>
       </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7">
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7">
         <v>81.603180372599994</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8190,38 +13657,50 @@
       <c r="E8">
         <v>81.618523904699998</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8">
+        <v>15.4813982145</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8">
         <v>22509</v>
       </c>
-      <c r="J8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8">
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>79.945310764599995</v>
       </c>
       <c r="M8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8">
+        <v>6.49921540339</v>
+      </c>
+      <c r="O8" t="s">
         <v>11</v>
       </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8">
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8">
         <v>22013</v>
       </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8">
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8">
         <v>81.586653341200005</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -8237,38 +13716,50 @@
       <c r="E9">
         <v>81.627539195599994</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9">
+        <v>16.877293912799999</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9">
         <v>22515</v>
       </c>
-      <c r="J9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9">
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9">
         <v>79.921918720899995</v>
       </c>
       <c r="M9" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9">
+        <v>6.6778367440600004</v>
+      </c>
+      <c r="O9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9">
+      <c r="P9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9">
         <v>22004</v>
       </c>
-      <c r="P9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9">
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>81.618523904699998</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -8284,38 +13775,50 @@
       <c r="E10">
         <v>81.621432466800002</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10">
+        <v>16.817635766399999</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10">
         <v>22522</v>
       </c>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10">
+      <c r="K10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10">
         <v>79.897655625599995</v>
       </c>
       <c r="M10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10">
+        <v>6.05555891816</v>
+      </c>
+      <c r="O10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10">
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10">
         <v>22005</v>
       </c>
-      <c r="P10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10">
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10">
         <v>81.627539195599994</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -8331,38 +13834,50 @@
       <c r="E11">
         <v>81.642970774099993</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11">
+        <v>18.1794089869</v>
+      </c>
+      <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="H11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11">
         <v>22513</v>
       </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11">
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11">
         <v>79.929685070800005</v>
       </c>
       <c r="M11" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11">
+        <v>6.76700620041</v>
+      </c>
+      <c r="O11" t="s">
         <v>14</v>
       </c>
-      <c r="N11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11">
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11">
         <v>22004</v>
       </c>
-      <c r="P11" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11">
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
         <v>81.621432466800002</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -8378,38 +13893,50 @@
       <c r="E12">
         <v>81.594894158299994</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12">
+        <v>17.059069968199999</v>
+      </c>
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12">
         <v>22511</v>
       </c>
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12">
+      <c r="K12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12">
         <v>79.934387632699995</v>
       </c>
       <c r="M12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12">
+        <v>5.5984574087799999</v>
+      </c>
+      <c r="O12" t="s">
         <v>15</v>
       </c>
-      <c r="N12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12">
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12">
         <v>22001</v>
       </c>
-      <c r="P12" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12">
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12">
         <v>81.642970774099993</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -8425,38 +13952,50 @@
       <c r="E13">
         <v>81.625102244800004</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13">
+        <v>17.1750760143</v>
+      </c>
+      <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="H13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>22513</v>
       </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13">
+      <c r="K13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13">
         <v>79.931239728199998</v>
       </c>
       <c r="M13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13">
+        <v>6.24549785556</v>
+      </c>
+      <c r="O13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" t="s">
-        <v>4</v>
-      </c>
-      <c r="O13">
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13">
         <v>22014</v>
       </c>
-      <c r="P13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13">
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13">
         <v>81.594894158299994</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -8472,38 +14011,50 @@
       <c r="E14">
         <v>81.627499091199994</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14">
+        <v>17.629999874199999</v>
+      </c>
+      <c r="H14" t="s">
         <v>17</v>
       </c>
-      <c r="H14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14">
         <v>22519</v>
       </c>
-      <c r="J14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14">
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14">
         <v>79.9072782983</v>
       </c>
       <c r="M14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14">
+        <v>5.8540518486500002</v>
+      </c>
+      <c r="O14" t="s">
         <v>17</v>
       </c>
-      <c r="N14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14">
+      <c r="P14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14">
         <v>22006</v>
       </c>
-      <c r="P14" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14">
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14">
         <v>81.625102244800004</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -8519,38 +14070,50 @@
       <c r="E15">
         <v>81.618328938999994</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15">
+        <v>17.101305637399999</v>
+      </c>
+      <c r="H15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15">
         <v>22516</v>
       </c>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15">
+      <c r="K15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15">
         <v>79.918990939799997</v>
       </c>
       <c r="M15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N15">
+        <v>5.6419182695499996</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15">
+      <c r="P15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15">
         <v>22008</v>
       </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15">
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15">
         <v>81.627499091199994</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -8566,38 +14129,50 @@
       <c r="E16">
         <v>81.605818181800004</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16">
+        <v>17.466304775499999</v>
+      </c>
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16">
         <v>22501</v>
       </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16">
+      <c r="K16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16">
         <v>79.968712501699997</v>
       </c>
       <c r="M16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16">
+        <v>5.9315008065199999</v>
+      </c>
+      <c r="O16" t="s">
         <v>19</v>
       </c>
-      <c r="N16" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16">
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16">
         <v>21998</v>
       </c>
-      <c r="P16" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16">
+      <c r="R16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16">
         <v>81.618328938999994</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -8613,38 +14188,50 @@
       <c r="E17">
         <v>81.607496592499999</v>
       </c>
-      <c r="G17" t="s">
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17">
+        <v>16.566965376999999</v>
+      </c>
+      <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17">
         <v>22521</v>
       </c>
-      <c r="J17" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17">
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17">
         <v>79.895075707100006</v>
       </c>
       <c r="M17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N17">
+        <v>5.8361166635400004</v>
+      </c>
+      <c r="O17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17">
+      <c r="P17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17">
         <v>22000</v>
       </c>
-      <c r="P17" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17">
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17">
         <v>81.605818181800004</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -8660,38 +14247,44 @@
       <c r="E18">
         <v>3.79377131166</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="H18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
         <v>22513</v>
       </c>
-      <c r="J18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18">
+      <c r="K18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18">
         <v>79.927464131799994</v>
       </c>
       <c r="M18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18">
+        <v>5.90161473645</v>
+      </c>
+      <c r="O18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18">
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18">
         <v>22010</v>
       </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18">
+      <c r="R18" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18">
         <v>81.607496592499999</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -8707,38 +14300,38 @@
       <c r="E19">
         <v>3.76789528701</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="H19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
         <v>22492</v>
       </c>
-      <c r="J19" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19">
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19">
         <v>1.8144673661699999</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19">
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19">
         <v>21995</v>
       </c>
-      <c r="P19" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19">
+      <c r="R19" t="s">
+        <v>5</v>
+      </c>
+      <c r="S19">
         <v>3.79377131166</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -8754,38 +14347,38 @@
       <c r="E20">
         <v>3.7606651219799998</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
         <v>22514</v>
       </c>
-      <c r="J20" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20">
+      <c r="K20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20">
         <v>1.75499689082</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>23</v>
       </c>
-      <c r="N20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20">
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20">
         <v>22003</v>
       </c>
-      <c r="P20" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20">
+      <c r="R20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20">
         <v>3.76789528701</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -8801,38 +14394,38 @@
       <c r="E21">
         <v>3.7269547044700002</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>24</v>
       </c>
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
         <v>22514</v>
       </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21">
+      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21">
         <v>1.74891178822</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>24</v>
       </c>
-      <c r="N21" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21">
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21">
         <v>22011</v>
       </c>
-      <c r="P21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21">
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21">
         <v>3.7606651219799998</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -8848,38 +14441,38 @@
       <c r="E22">
         <v>3.7409342906499998</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>25</v>
       </c>
-      <c r="H22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
         <v>22510</v>
       </c>
-      <c r="J22" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22">
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22">
         <v>1.7503331852499999</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>25</v>
       </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22">
+      <c r="P22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22">
         <v>22011</v>
       </c>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22">
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22">
         <v>3.7269547044700002</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -8895,38 +14488,38 @@
       <c r="E23">
         <v>3.7294903243399999</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>26</v>
       </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
         <v>22515</v>
       </c>
-      <c r="J23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23">
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23">
         <v>1.74301576727</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>26</v>
       </c>
-      <c r="N23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23">
+      <c r="P23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23">
         <v>22006</v>
       </c>
-      <c r="P23" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23">
+      <c r="R23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23">
         <v>3.7409342906499998</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -8942,38 +14535,38 @@
       <c r="E24">
         <v>3.7657805044299999</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24">
         <v>22516</v>
       </c>
-      <c r="J24" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24">
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24">
         <v>1.7472019897</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>27</v>
       </c>
-      <c r="N24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24">
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24">
         <v>22014</v>
       </c>
-      <c r="P24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24">
+      <c r="R24" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24">
         <v>3.7294903243399999</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -8989,38 +14582,38 @@
       <c r="E25">
         <v>3.7702794819399998</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25">
         <v>22523</v>
       </c>
-      <c r="J25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25">
+      <c r="K25" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25">
         <v>1.72397105181</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>28</v>
       </c>
-      <c r="N25" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25">
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25">
         <v>22005</v>
       </c>
-      <c r="P25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q25">
+      <c r="R25" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25">
         <v>3.7657805044299999</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -9036,38 +14629,38 @@
       <c r="E26">
         <v>3.76052177075</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26">
         <v>22514</v>
       </c>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26">
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26">
         <v>1.75175446389</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>29</v>
       </c>
-      <c r="N26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26">
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26">
         <v>22005</v>
       </c>
-      <c r="P26" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26">
+      <c r="R26" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26">
         <v>3.7702794819399998</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -9083,38 +14676,38 @@
       <c r="E27">
         <v>3.7353168294299999</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>30</v>
       </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27">
         <v>22512</v>
       </c>
-      <c r="J27" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27">
+      <c r="K27" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27">
         <v>1.7468461265099999</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>30</v>
       </c>
-      <c r="N27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27">
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27">
         <v>22002</v>
       </c>
-      <c r="P27" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27">
+      <c r="R27" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27">
         <v>3.76052177075</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -9130,38 +14723,38 @@
       <c r="E28">
         <v>3.7609851410899999</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28">
         <v>22514</v>
       </c>
-      <c r="J28" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28">
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28">
         <v>1.75561872613</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="N28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28">
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28">
         <v>22015</v>
       </c>
-      <c r="P28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28">
+      <c r="R28" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28">
         <v>3.7353168294299999</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -9177,38 +14770,38 @@
       <c r="E29">
         <v>3.7566904448199998</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>32</v>
       </c>
-      <c r="H29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29">
+      <c r="I29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29">
         <v>22520</v>
       </c>
-      <c r="J29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29">
+      <c r="K29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29">
         <v>1.7318383659000001</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="N29" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29">
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29">
         <v>22007</v>
       </c>
-      <c r="P29" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29">
+      <c r="R29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29">
         <v>3.7609851410899999</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -9224,38 +14817,38 @@
       <c r="E30">
         <v>3.7604891131399998</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="H30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30">
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30">
         <v>22517</v>
       </c>
-      <c r="J30" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30">
+      <c r="K30" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30">
         <v>1.7439712217400001</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>33</v>
       </c>
-      <c r="N30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30">
+      <c r="P30" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30">
         <v>22009</v>
       </c>
-      <c r="P30" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q30">
+      <c r="R30" t="s">
+        <v>5</v>
+      </c>
+      <c r="S30">
         <v>3.7566904448199998</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -9271,38 +14864,38 @@
       <c r="E31">
         <v>3.7623289850499999</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>34</v>
       </c>
-      <c r="H31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31">
         <v>22502</v>
       </c>
-      <c r="J31" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31">
+      <c r="K31" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31">
         <v>1.78508577015</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>34</v>
       </c>
-      <c r="N31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31">
+      <c r="P31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31">
         <v>21999</v>
       </c>
-      <c r="P31" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q31">
+      <c r="R31" t="s">
+        <v>5</v>
+      </c>
+      <c r="S31">
         <v>3.7604891131399998</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -9318,369 +14911,369 @@
       <c r="E32">
         <v>3.7672029815500001</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>35</v>
       </c>
-      <c r="H32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32">
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32">
         <v>22522</v>
       </c>
-      <c r="J32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32">
+      <c r="K32" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32">
         <v>1.7595684219900001</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>35</v>
       </c>
-      <c r="N32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32">
+      <c r="P32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32">
         <v>22001</v>
       </c>
-      <c r="P32" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32">
+      <c r="R32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32">
         <v>3.7623289850499999</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33">
         <v>192.31118881099999</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>36</v>
       </c>
-      <c r="H33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33">
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33">
         <v>22518</v>
       </c>
-      <c r="J33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33">
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33">
         <v>1.7654765076800001</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>36</v>
       </c>
-      <c r="N33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O33">
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33">
         <v>22002</v>
       </c>
-      <c r="P33" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33">
+      <c r="R33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33">
         <v>3.7672029815500001</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34">
         <v>330085</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>6</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>195.495657209</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>37</v>
       </c>
-      <c r="N34" t="s">
-        <v>4</v>
-      </c>
-      <c r="O34">
+      <c r="P34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34">
         <v>22492</v>
       </c>
-      <c r="P34" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q34">
+      <c r="R34" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34">
         <v>1.8144673661699999</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
-      <c r="G35" t="s">
+    <row r="35" spans="1:19">
+      <c r="H35" t="s">
         <v>7</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>337703</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>38</v>
       </c>
-      <c r="N35" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35">
+      <c r="P35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35">
         <v>22514</v>
       </c>
-      <c r="P35" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35">
+      <c r="R35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35">
         <v>1.75499689082</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
-      <c r="M36" t="s">
+    <row r="36" spans="1:19">
+      <c r="O36" t="s">
         <v>39</v>
       </c>
-      <c r="N36" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36">
+      <c r="P36" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q36">
         <v>22514</v>
       </c>
-      <c r="P36" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36">
+      <c r="R36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36">
         <v>1.74891178822</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
-      <c r="M37" t="s">
+    <row r="37" spans="1:19">
+      <c r="O37" t="s">
         <v>40</v>
       </c>
-      <c r="N37" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37">
+      <c r="P37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q37">
         <v>22510</v>
       </c>
-      <c r="P37" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q37">
+      <c r="R37" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37">
         <v>1.7503331852499999</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="M38" t="s">
+    <row r="38" spans="1:19">
+      <c r="O38" t="s">
         <v>41</v>
       </c>
-      <c r="N38" t="s">
-        <v>4</v>
-      </c>
-      <c r="O38">
+      <c r="P38" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38">
         <v>22515</v>
       </c>
-      <c r="P38" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q38">
+      <c r="R38" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38">
         <v>1.74301576727</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="M39" t="s">
+    <row r="39" spans="1:19">
+      <c r="O39" t="s">
         <v>42</v>
       </c>
-      <c r="N39" t="s">
-        <v>4</v>
-      </c>
-      <c r="O39">
+      <c r="P39" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39">
         <v>22516</v>
       </c>
-      <c r="P39" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q39">
+      <c r="R39" t="s">
+        <v>5</v>
+      </c>
+      <c r="S39">
         <v>1.7472019897</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
-      <c r="M40" t="s">
+    <row r="40" spans="1:19">
+      <c r="O40" t="s">
         <v>43</v>
       </c>
-      <c r="N40" t="s">
-        <v>4</v>
-      </c>
-      <c r="O40">
+      <c r="P40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40">
         <v>22523</v>
       </c>
-      <c r="P40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q40">
+      <c r="R40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40">
         <v>1.72397105181</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="M41" t="s">
+    <row r="41" spans="1:19">
+      <c r="O41" t="s">
         <v>44</v>
       </c>
-      <c r="N41" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41">
+      <c r="P41" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41">
         <v>22514</v>
       </c>
-      <c r="P41" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41">
+      <c r="R41" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41">
         <v>1.75175446389</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="M42" t="s">
+    <row r="42" spans="1:19">
+      <c r="O42" t="s">
         <v>45</v>
       </c>
-      <c r="N42" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42">
+      <c r="P42" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42">
         <v>22512</v>
       </c>
-      <c r="P42" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42">
+      <c r="R42" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42">
         <v>1.7468461265099999</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="M43" t="s">
+    <row r="43" spans="1:19">
+      <c r="O43" t="s">
         <v>46</v>
       </c>
-      <c r="N43" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43">
+      <c r="P43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43">
         <v>22514</v>
       </c>
-      <c r="P43" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43">
+      <c r="R43" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43">
         <v>1.75561872613</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
-      <c r="M44" t="s">
+    <row r="44" spans="1:19">
+      <c r="O44" t="s">
         <v>47</v>
       </c>
-      <c r="N44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44">
+      <c r="P44" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44">
         <v>22520</v>
       </c>
-      <c r="P44" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44">
+      <c r="R44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44">
         <v>1.7318383659000001</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
-      <c r="M45" t="s">
+    <row r="45" spans="1:19">
+      <c r="O45" t="s">
         <v>48</v>
       </c>
-      <c r="N45" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45">
+      <c r="P45" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45">
         <v>22517</v>
       </c>
-      <c r="P45" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45">
+      <c r="R45" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45">
         <v>1.7439712217400001</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
-      <c r="M46" t="s">
+    <row r="46" spans="1:19">
+      <c r="O46" t="s">
         <v>49</v>
       </c>
-      <c r="N46" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46">
+      <c r="P46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46">
         <v>22502</v>
       </c>
-      <c r="P46" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46">
+      <c r="R46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46">
         <v>1.78508577015</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
-      <c r="M47" t="s">
+    <row r="47" spans="1:19">
+      <c r="O47" t="s">
         <v>50</v>
       </c>
-      <c r="N47" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47">
+      <c r="P47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47">
         <v>22522</v>
       </c>
-      <c r="P47" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47">
+      <c r="R47" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47">
         <v>1.7595684219900001</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="M48" t="s">
+    <row r="48" spans="1:19">
+      <c r="O48" t="s">
         <v>51</v>
       </c>
-      <c r="N48" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48">
+      <c r="P48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48">
         <v>22518</v>
       </c>
-      <c r="P48" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48">
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48">
         <v>1.7654765076800001</v>
       </c>
     </row>
-    <row r="49" spans="13:16">
-      <c r="M49" t="s">
+    <row r="49" spans="15:18">
+      <c r="O49" t="s">
         <v>6</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>386.58193398999998</v>
       </c>
     </row>
-    <row r="50" spans="13:16">
-      <c r="M50" t="s">
+    <row r="50" spans="15:18">
+      <c r="O50" t="s">
         <v>7</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>667788</v>
       </c>
-      <c r="O50">
-        <f>N49*1800</f>
+      <c r="Q50">
+        <f>P49*1800</f>
         <v>695847.48118200002</v>
       </c>
-      <c r="P50">
-        <f>N50-O50</f>
+      <c r="R50">
+        <f>P50-Q50</f>
         <v>-28059.481182000018</v>
       </c>
     </row>
@@ -15453,15 +21046,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E14"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15704,6 +21298,74 @@
       </c>
       <c r="E14" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15">
+        <f>B14^2</f>
+        <v>3.4845198519629653E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:D15" si="5">C14^2</f>
+        <v>4173.6393514492274</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>0.23263341247347052</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f>B15*A16</f>
+        <v>0.13938079407851861</v>
+      </c>
+      <c r="C16">
+        <f>C15*A16</f>
+        <v>16694.55740579691</v>
+      </c>
+      <c r="D16">
+        <f>D15*A16</f>
+        <v>0.9305336498938821</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>16695.627320240881</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <f>B16/E16</f>
+        <v>8.3483412395975584E-6</v>
+      </c>
+      <c r="C18">
+        <f>C16/E16</f>
+        <v>0.99993591648738622</v>
+      </c>
+      <c r="D18">
+        <f>D16/E16</f>
+        <v>5.5735171374228814E-5</v>
+      </c>
+      <c r="E18">
+        <f>SUM(B18:D18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <f>B18*100</f>
+        <v>8.3483412395975588E-4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:D19" si="6">C18*100</f>
+        <v>99.993591648738629</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>5.5735171374228813E-3</v>
       </c>
     </row>
   </sheetData>
@@ -15724,7 +21386,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15748,14 +21410,17 @@
       <c r="H1">
         <v>60</v>
       </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
       <c r="L1" t="s">
         <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="N1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -15763,10 +21428,10 @@
         <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -15789,7 +21454,7 @@
         <v>81.480561888799997</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L3">
         <v>80.226547142100003</v>
@@ -15803,7 +21468,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="K4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L4">
         <v>194.45348837200001</v>
@@ -15855,18 +21520,23 @@
         <v>131542</v>
       </c>
     </row>
+    <row r="7" spans="1:14">
+      <c r="K7" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="8" spans="1:14">
       <c r="K8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -15883,21 +21553,21 @@
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
         <v>87</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="K10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L10">
         <v>80.226547142100003</v>
@@ -15925,7 +21595,7 @@
         <v>82.088197113899994</v>
       </c>
       <c r="K11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L11">
         <v>194.45348837200001</v>
@@ -16089,6 +21759,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16101,7 +21772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1727"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:A1727"/>
     </sheetView>
   </sheetViews>
